--- a/S32K344_CustomBootloader/Config.xlsx
+++ b/S32K344_CustomBootloader/Config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t xml:space="preserve">Address \ Bytes </t>
   </si>
@@ -34,12 +34,48 @@
     <t xml:space="preserve">0x500004</t>
   </si>
   <si>
-    <t xml:space="preserve">MAC ADDRESS</t>
+    <t xml:space="preserve">SYSTEM ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW MAJOR VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW MINOR VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW BUGFIX VERSION</t>
   </si>
   <si>
     <t xml:space="preserve">0x500008</t>
   </si>
   <si>
+    <t xml:space="preserve">0XFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC ADDRESS BYTE[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC ADDRESS BYTE[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC ADDRESS BYTE[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x50000C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC ADDRESS BYTE[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC ADDRESS BYTE[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC ADDRESS BYTE[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x500010</t>
+  </si>
+  <si>
     <t xml:space="preserve"> BOOT TIMEOUT </t>
   </si>
   <si>
@@ -70,7 +106,7 @@
     <t xml:space="preserve">USERNAME NUMBER</t>
   </si>
   <si>
-    <t xml:space="preserve">0x50000C</t>
+    <t xml:space="preserve">0x500014</t>
   </si>
   <si>
     <t xml:space="preserve">CELL CAP AH</t>
@@ -85,7 +121,7 @@
     <t xml:space="preserve">DAISY CHAIN COUNT</t>
   </si>
   <si>
-    <t xml:space="preserve">0x500010</t>
+    <t xml:space="preserve">0x500018</t>
   </si>
   <si>
     <t xml:space="preserve">MAX CELL V</t>
@@ -94,7 +130,7 @@
     <t xml:space="preserve">MIN CELL V</t>
   </si>
   <si>
-    <t xml:space="preserve">0x500014</t>
+    <t xml:space="preserve">0x50001C</t>
   </si>
   <si>
     <t xml:space="preserve">TEMP SENSOR BETA</t>
@@ -106,7 +142,7 @@
     <t xml:space="preserve">DEFAULT SOH</t>
   </si>
   <si>
-    <t xml:space="preserve">0x500018</t>
+    <t xml:space="preserve">0x500020</t>
   </si>
   <si>
     <t xml:space="preserve">MAX TEMP</t>
@@ -118,33 +154,15 @@
     <t xml:space="preserve">TEMP SENSOR COUNT</t>
   </si>
   <si>
-    <t xml:space="preserve">0XFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x50001C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYSTEM ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW MAJOR VERSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW MINOR VERSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW BUGFIX VERSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x500020</t>
-  </si>
-  <si>
     <t xml:space="preserve">0x500024</t>
   </si>
   <si>
     <t xml:space="preserve">0x500028</t>
   </si>
   <si>
+    <t xml:space="preserve">0x50002C</t>
+  </si>
+  <si>
     <t xml:space="preserve">!</t>
   </si>
   <si>
@@ -157,7 +175,7 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">0x50002C</t>
+    <t xml:space="preserve">0x500030</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -176,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -210,15 +228,6 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -229,30 +238,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2E75B6"/>
-        <bgColor rgb="FF0066CC"/>
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -296,10 +305,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
+      <left style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -311,6 +320,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
@@ -324,23 +340,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -412,132 +414,116 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -566,7 +552,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -586,20 +572,20 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF2E75B6"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -618,16 +604,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM13"/>
+  <dimension ref="A1:BM18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ8" activeCellId="0" sqref="AJ8"/>
+      <selection pane="topLeft" activeCell="AG22" activeCellId="1" sqref="J20 AG22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="2.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.29"/>
@@ -636,14 +623,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="17" style="1" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="1" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="7.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="26" style="1" width="3.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="34" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -744,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -797,7 +785,9 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -805,7 +795,9 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="R3" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -813,95 +805,53 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="0"/>
-      <c r="AN3" s="0"/>
-      <c r="AO3" s="0"/>
-      <c r="AP3" s="0"/>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AS3" s="0"/>
-      <c r="AT3" s="0"/>
-      <c r="AU3" s="0"/>
-      <c r="AV3" s="0"/>
-      <c r="AW3" s="0"/>
-      <c r="AX3" s="0"/>
-      <c r="AY3" s="0"/>
-      <c r="AZ3" s="0"/>
-      <c r="BA3" s="0"/>
-      <c r="BB3" s="0"/>
-      <c r="BC3" s="0"/>
-      <c r="BD3" s="0"/>
-      <c r="BE3" s="0"/>
-      <c r="BF3" s="0"/>
-      <c r="BG3" s="0"/>
-      <c r="BH3" s="0"/>
-      <c r="BI3" s="0"/>
-      <c r="BJ3" s="0"/>
-      <c r="BK3" s="0"/>
-      <c r="BL3" s="0"/>
-      <c r="BM3" s="0"/>
+      <c r="Z3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
@@ -910,85 +860,165 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="12" t="s">
+      <c r="J6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="6" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -997,348 +1027,395 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="28" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29" t="s">
+      <c r="B13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="31" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
     </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="48">
     <mergeCell ref="B2:AG2"/>
-    <mergeCell ref="B3:AG3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
     <mergeCell ref="Z4:AG4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="J5:Q5"/>
     <mergeCell ref="R5:Y5"/>
     <mergeCell ref="Z5:AG5"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="R6:AG6"/>
-    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="Z6:AG6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:Q7"/>
     <mergeCell ref="R7:Y7"/>
     <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
-    <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="R8:AG8"/>
+    <mergeCell ref="B9:Q9"/>
     <mergeCell ref="R9:Y9"/>
     <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:Q10"/>
     <mergeCell ref="R10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="B11:P11"/>
     <mergeCell ref="R11:Y11"/>
     <mergeCell ref="Z11:AG11"/>
     <mergeCell ref="B12:I12"/>
@@ -1349,6 +1426,10 @@
     <mergeCell ref="J13:Q13"/>
     <mergeCell ref="R13:Y13"/>
     <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
